--- a/Homeworks_33_group.xlsx
+++ b/Homeworks_33_group.xlsx
@@ -4,16 +4,17 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="All homeworks" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Git Bash Artsiom" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Terminal_intro" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="Terminal_HW_Check" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="Terminal (Find, Grep)" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="Markdowns GitHub" sheetId="6" r:id="rId9"/>
-    <sheet state="visible" name="Mobile testing" sheetId="7" r:id="rId10"/>
-    <sheet state="visible" name="Git Hub repository" sheetId="8" r:id="rId11"/>
-    <sheet state="visible" name="Git branch" sheetId="9" r:id="rId12"/>
-    <sheet state="visible" name="Git Answers" sheetId="10" r:id="rId13"/>
-    <sheet state="visible" name="Client Server" sheetId="11" r:id="rId14"/>
+    <sheet state="visible" name="Ссылки на таблицы" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Git Bash Artsiom" sheetId="3" r:id="rId6"/>
+    <sheet state="visible" name="Terminal_intro" sheetId="4" r:id="rId7"/>
+    <sheet state="visible" name="Terminal_HW_Check" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="Terminal (Find, Grep)" sheetId="6" r:id="rId9"/>
+    <sheet state="visible" name="Markdowns GitHub" sheetId="7" r:id="rId10"/>
+    <sheet state="visible" name="Mobile testing" sheetId="8" r:id="rId11"/>
+    <sheet state="visible" name="Git Hub repository" sheetId="9" r:id="rId12"/>
+    <sheet state="visible" name="Git branch" sheetId="10" r:id="rId13"/>
+    <sheet state="visible" name="Git Answers" sheetId="11" r:id="rId14"/>
+    <sheet state="visible" name="Client Server" sheetId="12" r:id="rId15"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="448">
   <si>
     <t>Theme</t>
   </si>
@@ -35,7 +36,19 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Where stopped</t>
+    <t>Where I'm stopped</t>
+  </si>
+  <si>
+    <t>HW name</t>
+  </si>
+  <si>
+    <t>HW passed</t>
+  </si>
+  <si>
+    <t>Download on repository</t>
+  </si>
+  <si>
+    <t>Proof on Git Hub</t>
   </si>
   <si>
     <t>Terminal Linux - Git Bash</t>
@@ -54,21 +67,27 @@
     <t>Link to job</t>
   </si>
   <si>
+    <t>---</t>
+  </si>
+  <si>
     <t>03.02.2023 Terminal_intro</t>
   </si>
   <si>
     <t>33_Group_channel</t>
   </si>
   <si>
+    <t>Первая часть первого  ДЗ  )) Linux terminal (GitBash) commands</t>
+  </si>
+  <si>
+    <t>Link to proof</t>
+  </si>
+  <si>
+    <t>07.02.2023 Terminal_HW_Check</t>
+  </si>
+  <si>
     <t>Expext</t>
   </si>
   <si>
-    <t>HW_1</t>
-  </si>
-  <si>
-    <t>07.02.2023 Terminal_HW_Check</t>
-  </si>
-  <si>
     <t>15.02.2023 Terminal (Find, Grep)</t>
   </si>
   <si>
@@ -84,22 +103,31 @@
     <t>10.02.2023 Mobile testing</t>
   </si>
   <si>
-    <t>Partially done</t>
+    <t>In work</t>
   </si>
   <si>
     <t>15.02.2023 Mobile Check_lists</t>
   </si>
   <si>
+    <t>Mobile Check_lists (see on sheet "Mobile testing")</t>
+  </si>
+  <si>
     <t>Git Hub</t>
   </si>
   <si>
     <t>18.02.2023 GitHub repository</t>
   </si>
   <si>
+    <t>Next</t>
+  </si>
+  <si>
+    <t>GIT Homework 1</t>
+  </si>
+  <si>
     <t>21.02.2023 Git branch</t>
   </si>
   <si>
-    <t>HW_2</t>
+    <t>GitHub. HW_2</t>
   </si>
   <si>
     <t>21.02.2023 Git Answers</t>
@@ -109,6 +137,48 @@
   </si>
   <si>
     <t>24.02.2023</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/spreadsheets/d/1BudB_l-2Vr7LuWOSyQeePlxGfRK7YswNBuKgXNIMasU/edit#gid=0</t>
+  </si>
+  <si>
+    <t>Эта таблица - Homeworks_33_group</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/spreadsheets/d/1rZP6DpAGpHjBfsWAkPz8fUIgLpvT2YW4pH69ZBkJFQo/edit#gid=174881363</t>
+  </si>
+  <si>
+    <t>Capital практика</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/spreadsheets/d/1i2DV_0IZCWc87wwyqDEGCdslKe8LyHiTtHD_Z1JmO84/edit#gid=0</t>
+  </si>
+  <si>
+    <t>Состав Групп - по практике capital</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/spreadsheets/d/1_aa1_hpEVJyhglhSOgZpeuT7hhURRo5EQETqobnAfuU/edit#gid=0</t>
+  </si>
+  <si>
+    <t>Members_for_Sertification - Таблица скрининга знаний</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/spreadsheets/d/1d8_Aasgq5bd-hkA7AWNcZXVMielVfB4zy81A8nJ6Wfc/edit#gid=1529228161</t>
+  </si>
+  <si>
+    <t>33_practice</t>
+  </si>
+  <si>
+    <t>https://vladislaveremeev.gitbook.io/qa_bible/</t>
+  </si>
+  <si>
+    <t>Qa_bible</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/spreadsheets/d/1ysyDt5BYfXVL6ievXK8qFpkMVVxzAY5U/edit?usp=share_link&amp;ouid=104035671481496277324&amp;rtpof=true&amp;sd=true</t>
+  </si>
+  <si>
+    <t>Полезности для учебы</t>
   </si>
   <si>
     <t>http://www.rhd.ru/docs/manuals/enterprise/RHEL-AS-2.1-Manual/getting-started-guide/s1-navigating-cd.html</t>
@@ -969,6 +1039,42 @@
 3) Зайти в папку - cd foldername</t>
   </si>
   <si>
+    <t>Начало</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cat </t>
+  </si>
+  <si>
+    <t>cat &gt;</t>
+  </si>
+  <si>
+    <t>cat &gt;&gt;</t>
+  </si>
+  <si>
+    <t>cat dir_1/file1.txt</t>
+  </si>
+  <si>
+    <t>mv 2.txt 7.txt</t>
+  </si>
+  <si>
+    <t>vim</t>
+  </si>
+  <si>
+    <t>Создаем первый json</t>
+  </si>
+  <si>
+    <t>{ 
+    "Name": "Anna",
+    "Properties": {
+                           "Age": 35,
+                           "Surname": "Rukavishnikova"
+                        }
+}</t>
+  </si>
+  <si>
+    <t>explorer .</t>
+  </si>
+  <si>
     <t>Создаем файлы</t>
   </si>
   <si>
@@ -1111,7 +1217,7 @@
 - если Android то это COTLIN (раньше на джаве)</t>
   </si>
   <si>
-    <t>Если вы захотите запилить приложение под две платформы под IOS и Android то вам надо содержать две команды программистов.</t>
+    <t>Если вы захотите запилить мобильное приложение под две платформы под IOS и Android то вам надо содержать две команды программистов.</t>
   </si>
   <si>
     <t>Гибриды</t>
@@ -1154,6 +1260,150 @@
   </si>
   <si>
     <t>- прерывание: мобильный звонок, звонок на мобильное приложение, будильники, смски, пуш уведомления, разрядился телефон вам уведомление выскочило - "у вас осталось 20% зарядки", подключили или не подключили наушники что-то там квакнуло. От слова прерывается pipeline работы мобильного приложения чем-то, и, как ваше мобильное приложение отработает этот кейс.</t>
+  </si>
+  <si>
+    <t>Кейсов прерывания намного больше - основные вот эти.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Даже когда у вас спросят про особенности мобильного тестирования - вы назовете прерывание и не назовете мобильный звонок с мобильного телефона, звоночек на мобильное приложение типа телеграма и все такое - то все это хана. Так что звоночек всегда надо называть. </t>
+  </si>
+  <si>
+    <t>Если мы говорим за реконнекты - переподключение, то это уже идет речь про переподключение к интернету. Это различные сети: с 3G на 4G, с 4G на 3G, с Wi-Fi на 4G, с Wi-Fi на 3G, с 3G на Wi-Fi, c 4G на Wi-Fi, переключение с одного Wi-Fi роутера на другой, переключение со своего Wi-Fi роутера на Wi-Fi другого телефона, авиа режим, и еще множество комбинаций - при вопросе про реконнекты вам их надо назвать.</t>
+  </si>
+  <si>
+    <t>По своему опыту скажу - очень много багов сыпится при реконнектах, если программисты нормально не написали алгоритм переподключения, дублирование запросов на серваки, если вот они нормально не отрабатывают ситуации когда пропал интернет и потом вдруг появился с какой-то другой сети, то будет очень много багов валиться - поэтому реконнекты проверять всегда.</t>
+  </si>
+  <si>
+    <t>Следующий кейс который прямо чисто мобильный - это перевороты экрана. Есть приложения которые поддерживают смену ориентации, есть у которых эта смена ориентации отключена, например в инсте и тиктоке она отключена.</t>
+  </si>
+  <si>
+    <t>А есть приложения которые поддерживают смену ориентации с портретной на ландшафтную. В этом случае я столько багов отлавливал при переподключении если приложение поддерживает две ориентации.</t>
+  </si>
+  <si>
+    <t>Смена ориентации экрана - это полная перерисовка интерфейса мобильного приложения, т.е. это добавление новых функций, это удаление других функций, т.е. по сути вы открываете другую страницу мобильного приложения.</t>
+  </si>
+  <si>
+    <t>Особенно если вы на мобильном приложении писали какие-то циферки, то эти цифры должны остаться (т.е. при смене ориентации информация должна сохраняться).</t>
+  </si>
+  <si>
+    <t>Т.е. мобильному приложению где-то надо забрать данные что вы ввели, хранить их в каком-то окружении и потом, котгда перерисовался дизайн - обратно их вставить. 
+На этом огромное количество багов словлено.</t>
+  </si>
+  <si>
+    <t>В рамках мобильного тетсирования мы будем изучать с вами снифферы трафика. Но это чуть попозже.</t>
+  </si>
+  <si>
+    <t>Автомтическое переключение с ланджашфтного на портрет и обратно можно отключить в мобильном телефоне.</t>
+  </si>
+  <si>
+    <t>Бывает что отключают в самом приложении программистами, но поворот надо проверять. Бывает так что не отключено отслеживание положения датчика и в этом случае при повороте приложение крашится.</t>
+  </si>
+  <si>
+    <t>Бывает краш двух видов:
+- крэш с переходом на рабочий стол;
+- крэш с фризом, экран застыл, никакие действия не применяются, только принудительный выход на рабочий стол.</t>
+  </si>
+  <si>
+    <t>22:57</t>
+  </si>
+  <si>
+    <t>Что такое килл? Приложение вырубаете из памяти.</t>
+  </si>
+  <si>
+    <t>Что такое home? Уход в тень - приложение сворачиваете. Приложение висит в фоне.</t>
+  </si>
+  <si>
+    <t>Это два разных состояния из которых приложение должно уметь подниматься.</t>
+  </si>
+  <si>
+    <t>Что такое килл из области хоум? Это тот же килл только свернутого приложения.</t>
+  </si>
+  <si>
+    <t>Есть еще один момент по прерываниям - нужно тестировать на подключение проводного или беспроводного зарядника.</t>
+  </si>
+  <si>
+    <t>28:10</t>
+  </si>
+  <si>
+    <t>По поводу различий ios и android.</t>
+  </si>
+  <si>
+    <t>Это разные операционные системы.</t>
+  </si>
+  <si>
+    <t>Разный парк девайсов.</t>
+  </si>
+  <si>
+    <t>У ios все понятно - берете последнюю и предпоследнюю модель и это будут самые распространенные модели. Желательно PRO, обычный 13 14, и один какой-нибудь MAX. Для компаний купить эти 5 айфонов вообще ноль проблема.</t>
+  </si>
+  <si>
+    <t>С андроидами сложнее. Чтобы купить нормальный андроид и на нем проверять, во первых, надо анализировать рынок на котором будет разливаться ваше приложение. На какую локацию, страну вы будете лить свою рекламу.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Если на какой-то конкретной локации у вас много скачиваний, использования вашего приложения, гугл плей показывает статистику на каких девайсах скачивается ваше приложение. Если там видно что там самсунги S21 около миллиона, все юзают на S21 ваше приложение - то придется отвалить 2000$ и купить S21. </t>
+  </si>
+  <si>
+    <t>Короче говоря, что чаще используют пользватели в той локали где собираетесь разливать свое приложение, те девайсы и надо приобретать.</t>
+  </si>
+  <si>
+    <t>32:05</t>
+  </si>
+  <si>
+    <t>Если в моменте каких-то девайсов там нету, но хотелось бы проверить, то смотрите:</t>
+  </si>
+  <si>
+    <t>Есть несколько вариантов:</t>
+  </si>
+  <si>
+    <t>- попросить у знакомых</t>
+  </si>
+  <si>
+    <t>- в магазине телефонов)))</t>
+  </si>
+  <si>
+    <t>- если нет, то просите продлить сроки тестирования</t>
+  </si>
+  <si>
+    <t>- или просите компанию дать вам 50$ и пусть купят вам браузер стэк: это такая девайс ферма, где ну якобы подключены живые настоящие девайсы, и можно через пк интерфейс определенный, взять и протестировать мобильное приложение, через компьютер и и тыкать.</t>
+  </si>
+  <si>
+    <t>35:56</t>
+  </si>
+  <si>
+    <t>Помимо браузер стеков есть симуляторы и эмуляторы.</t>
+  </si>
+  <si>
+    <t>На ios это симулятор. Для быстрых тестов очень даже удобно.</t>
+  </si>
+  <si>
+    <t>На android это android studio, запускается эмулятор. Почему эмулятор? Потому что он старается эмулирвоать реальную работу железяки. Прописываете ему какое железо должно быть (озу проц и т.д.) - стараетесь максимально приблизиться к живому девайсу, и на нем протестируете.</t>
+  </si>
+  <si>
+    <t>Сугубо тестировать на симуляторах и эмуляторах а потом выпускать в прод нельзя.</t>
+  </si>
+  <si>
+    <t>37:27</t>
+  </si>
+  <si>
+    <t>Идем в гугл и ищем: сто кейсов мобильного тестирования., 250 особенностей мобильного тестирования.</t>
+  </si>
+  <si>
+    <t>Играйте с этими запросами, набиваете 3-5-10 чек-листов мобильного тестирования. Берете из всего этого перерабатываете свой чек-лист 150-200 кейсов мобильного тестирования накапливаете и все. Если вас спросят - назовите нам особенности мобильного тестирования вы берете и просто рассказываете то что вы выучили со своего чек-листа. Это такой лайфхак - это если нужно рассказать базу.</t>
+  </si>
+  <si>
+    <t>38:31</t>
+  </si>
+  <si>
+    <t>Если нужно понтануться на собеседовании, идете изучаете гайдлайн ios и гайдлайн android. Гайдлайны, это правила которым должны соответствовать приложения под ios и под android.</t>
+  </si>
+  <si>
+    <t>Если приложение не соответсвует этим правилам то в play market и в app store ваше приложение не впустят. App store следит жестко, google play дает шанс.</t>
+  </si>
+  <si>
+    <t>Соблюдение гайдлайнов это мастхэв, потому что если ваше приложение что-то где-то не соответствует гайдлайнам, но все-таки пролезло в аппстор или гугл плэй, - в какойто момент тестировщик Apple решит перепроверить ваше мобильное приложение и где-то оно там не соответствет гайдлайнам, вы представляете что это приложение вылетит из App store со 150 разработчиками и серверами пока не сделаете исправление. А если и выкинуло из эппстора - это недели на три.</t>
+  </si>
+  <si>
+    <t>40:48</t>
   </si>
   <si>
     <t>GIT Homework 1
@@ -1281,10 +1531,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="hh:mm"/>
+    <numFmt numFmtId="165" formatCode="[hh]:mm:ss"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1322,15 +1573,19 @@
       <color rgb="FF0000FF"/>
     </font>
     <font>
+      <color rgb="FF000000"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
+    </font>
+    <font>
       <b/>
       <sz val="18.0"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <color rgb="FF0000FF"/>
     </font>
     <font>
       <b/>
@@ -1399,6 +1654,12 @@
       <name val="&quot;Source Sans Pro&quot;"/>
     </font>
     <font>
+      <b/>
+      <color rgb="FFFF9900"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <color rgb="FF0000FF"/>
     </font>
@@ -1453,15 +1714,12 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="55">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
@@ -1473,35 +1731,47 @@
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="6" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -1523,19 +1793,16 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="7" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1556,9 +1823,18 @@
     <xf borderId="0" fillId="7" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="7" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -1568,13 +1844,35 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="top"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="top"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="top"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1597,6 +1895,10 @@
 </file>
 
 <file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -1840,10 +2142,13 @@
     <col customWidth="1" min="3" max="3" width="30.25"/>
     <col customWidth="1" min="4" max="4" width="25.63"/>
     <col customWidth="1" min="5" max="5" width="20.0"/>
-    <col customWidth="1" min="6" max="6" width="16.13"/>
+    <col customWidth="1" min="6" max="6" width="16.88"/>
+    <col customWidth="1" min="7" max="7" width="51.63"/>
+    <col customWidth="1" min="9" max="9" width="16.25"/>
+    <col customWidth="1" min="10" max="10" width="14.88"/>
   </cols>
   <sheetData>
-    <row r="2">
+    <row r="2" ht="36.0" customHeight="1">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1856,184 +2161,297 @@
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="3">
-      <c r="B3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="5" t="s">
+      <c r="B3" s="2" t="s">
         <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="4">
       <c r="C4" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="G4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="5">
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="4" t="s">
+      <c r="H5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="C6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="C6" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>9</v>
+      <c r="F6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>9</v>
+      <c r="E7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="C9" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="4" t="s">
+    </row>
+    <row r="10">
+      <c r="B10" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="C9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="4" t="s">
+      <c r="J10" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="C11" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G10" s="4" t="s">
+      <c r="F11" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="C11" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>25</v>
+      <c r="G11" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="12">
-      <c r="C12" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>9</v>
-      </c>
+      <c r="C12" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="15"/>
     </row>
     <row r="13">
-      <c r="B13" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>9</v>
-      </c>
+      <c r="B13" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="J13" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2042,20 +2460,25 @@
     <mergeCell ref="B10:B12"/>
   </mergeCells>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E3:E13">
-      <formula1>"PASS,Partially done,In work,Expext"</formula1>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="H4:I4 H9:I11 E3:E13">
+      <formula1>"PASS,Partially done,In work,Expext,Next"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink display="Link to job" location="'Git Bash Artsiom'!C145" ref="F3"/>
     <hyperlink display="Link to job" location="Terminal_intro!A1" ref="F4"/>
+    <hyperlink r:id="rId1" ref="G4"/>
+    <hyperlink r:id="rId2" ref="J4"/>
+    <hyperlink display="Link to job" location="Terminal_HW_Check!A1" ref="F5"/>
     <hyperlink display="Link to job" location="'Terminal (Find, Grep)'!C27" ref="F6"/>
-    <hyperlink display="Link to job" location="'Mobile testing'!B29" ref="F8"/>
+    <hyperlink display="Link to job" location="'Mobile testing'!B71" ref="F8"/>
     <hyperlink display="Link to job" location="'Git Hub repository'!B14" ref="F10"/>
+    <hyperlink r:id="rId3" ref="G10"/>
     <hyperlink display="Link to job" location="'Git branch'!A1" ref="F11"/>
+    <hyperlink r:id="rId4" ref="G11"/>
     <hyperlink display="Link to job" location="'Client Server'!A1" ref="F13"/>
   </hyperlinks>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -2070,11 +2493,13 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="77.13"/>
+    <col customWidth="1" min="2" max="2" width="71.75"/>
   </cols>
   <sheetData>
     <row r="2">
-      <c r="B2" s="38"/>
+      <c r="B2" s="22" t="s">
+        <v>445</v>
+      </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -2082,6 +2507,28 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <tabColor rgb="FF38761D"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="2" max="2" width="77.13"/>
+  </cols>
+  <sheetData>
+    <row r="2">
+      <c r="B2" s="44"/>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <tabColor rgb="FF4A86E8"/>
@@ -2096,17 +2543,17 @@
   </cols>
   <sheetData>
     <row r="2">
-      <c r="B2" s="40" t="s">
-        <v>366</v>
+      <c r="B2" s="53" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="41" t="s">
-        <v>367</v>
+      <c r="B3" s="54" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="41">
+      <c r="B4" s="54">
         <v>443.0</v>
       </c>
     </row>
@@ -2119,6 +2566,89 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="2" max="2" width="64.63"/>
+  </cols>
+  <sheetData>
+    <row r="3">
+      <c r="A3" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink display="https://docs.google.com/spreadsheets/d/1BudB_l-2Vr7LuWOSyQeePlxGfRK7YswNBuKgXNIMasU/edit#gid=0" location="'All homeworks'!A1" ref="A3"/>
+    <hyperlink r:id="rId1" location="gid=174881363" ref="A4"/>
+    <hyperlink r:id="rId2" location="gid=0" ref="A5"/>
+    <hyperlink r:id="rId3" location="gid=0" ref="A6"/>
+    <hyperlink r:id="rId4" location="gid=1529228161" ref="A7"/>
+    <hyperlink r:id="rId5" ref="A8"/>
+    <hyperlink r:id="rId6" ref="A9"/>
+  </hyperlinks>
+  <drawing r:id="rId7"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <tabColor rgb="FFFF9900"/>
@@ -2135,1184 +2665,1184 @@
   </cols>
   <sheetData>
     <row r="2">
-      <c r="A2" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>30</v>
+      <c r="A2" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="3">
-      <c r="B3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>32</v>
+      <c r="B3" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="4">
-      <c r="B4" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>34</v>
+      <c r="B4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="4"/>
+      <c r="B5" s="3"/>
     </row>
     <row r="7">
-      <c r="A7" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>36</v>
+      <c r="A7" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>38</v>
+      <c r="B8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>40</v>
+      <c r="B9" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>42</v>
+      <c r="B10" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>44</v>
+      <c r="B11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>46</v>
+      <c r="B12" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>48</v>
+      <c r="B13" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>50</v>
+      <c r="B14" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>52</v>
+      <c r="B15" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>54</v>
+      <c r="B16" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>56</v>
+      <c r="B17" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="18">
-      <c r="B18" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>58</v>
+      <c r="B18" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="19">
-      <c r="B19" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>60</v>
+      <c r="B19" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="20">
-      <c r="B20" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>62</v>
+      <c r="B20" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>64</v>
+      <c r="A23" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="24">
-      <c r="B24" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>66</v>
+      <c r="B24" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="25">
-      <c r="B25" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>68</v>
+      <c r="B25" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="26">
-      <c r="B26" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>70</v>
+      <c r="B26" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="27">
-      <c r="B27" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>72</v>
+      <c r="B27" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="28">
-      <c r="B28" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>74</v>
+      <c r="B28" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="16"/>
-      <c r="B29" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>76</v>
+      <c r="A29" s="19"/>
+      <c r="B29" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="30">
-      <c r="B30" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>78</v>
+      <c r="B30" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="16"/>
-      <c r="B31" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>80</v>
+      <c r="A31" s="19"/>
+      <c r="B31" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="32">
-      <c r="B32" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>82</v>
+      <c r="B32" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="33">
-      <c r="B33" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>84</v>
+      <c r="B33" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="34">
-      <c r="B34" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>86</v>
+      <c r="B34" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="35">
-      <c r="B35" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>88</v>
+      <c r="B35" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="36">
-      <c r="B36" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>90</v>
+      <c r="B36" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="37">
-      <c r="B37" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>92</v>
+      <c r="B37" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="38">
-      <c r="B38" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>94</v>
+      <c r="B38" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="39">
-      <c r="B39" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>96</v>
+      <c r="B39" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="40">
-      <c r="B40" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>98</v>
+      <c r="B40" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="41">
-      <c r="B41" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>100</v>
+      <c r="B41" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="42">
-      <c r="B42" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>102</v>
+      <c r="B42" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="43">
-      <c r="B43" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="C43" s="4" t="s">
-        <v>104</v>
+      <c r="B43" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="44">
-      <c r="B44" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>106</v>
+      <c r="B44" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="45">
-      <c r="B45" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>108</v>
+      <c r="B45" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="46">
-      <c r="B46" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>110</v>
+      <c r="B46" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="47">
-      <c r="B47" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="C47" s="19" t="s">
-        <v>112</v>
+      <c r="B47" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="C47" s="22" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="48">
-      <c r="B48" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>108</v>
+      <c r="B48" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="49">
-      <c r="B49" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>110</v>
+      <c r="B49" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="50">
-      <c r="B50" s="20" t="s">
-        <v>115</v>
+      <c r="B50" s="23" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="B54" s="14" t="s">
-        <v>117</v>
+      <c r="A54" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="B54" s="18" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="55">
-      <c r="B55" s="4" t="s">
-        <v>118</v>
+      <c r="B55" s="3" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="56">
-      <c r="B56" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>120</v>
+      <c r="B56" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="57">
-      <c r="B57" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>122</v>
+      <c r="B57" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="58">
-      <c r="B58" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>124</v>
+      <c r="B58" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="59">
-      <c r="B59" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>126</v>
+      <c r="B59" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="60">
-      <c r="B60" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>128</v>
+      <c r="B60" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="61">
-      <c r="B61" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>130</v>
+      <c r="B61" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="62">
-      <c r="B62" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>132</v>
+      <c r="B62" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>135</v>
+      <c r="A63" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="64">
-      <c r="B64" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>137</v>
+      <c r="B64" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="65">
-      <c r="B65" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>139</v>
+      <c r="B65" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="66">
-      <c r="B66" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>141</v>
+      <c r="B66" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>164</v>
       </c>
     </row>
     <row r="67">
-      <c r="B67" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>143</v>
+      <c r="B67" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>146</v>
+      <c r="A68" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C69" s="4" t="s">
-        <v>149</v>
+      <c r="A69" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>152</v>
+      <c r="A70" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>155</v>
+      <c r="A71" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="B72" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="C72" s="22" t="s">
-        <v>158</v>
+      <c r="A72" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="B72" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="C72" s="25" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="B73" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="C73" s="22" t="s">
-        <v>158</v>
+      <c r="A73" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="B73" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="C73" s="25" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="75">
-      <c r="B75" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>162</v>
+      <c r="B75" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="76">
-      <c r="B76" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C76" s="4" t="s">
-        <v>164</v>
+      <c r="B76" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="77">
-      <c r="B77" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>166</v>
+      <c r="B77" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="78">
-      <c r="B78" s="15" t="s">
-        <v>167</v>
+      <c r="B78" s="17" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="79">
-      <c r="B79" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>169</v>
+      <c r="B79" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="80">
-      <c r="B80" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>171</v>
+      <c r="B80" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="81">
-      <c r="B81" s="18" t="s">
-        <v>172</v>
-      </c>
-      <c r="C81" s="19" t="s">
-        <v>173</v>
+      <c r="B81" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="C81" s="22" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="82">
-      <c r="B82" s="23"/>
-      <c r="C82" s="18"/>
+      <c r="B82" s="26"/>
+      <c r="C82" s="21"/>
     </row>
     <row r="83">
-      <c r="B83" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="C83" s="18" t="s">
-        <v>175</v>
+      <c r="B83" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="C83" s="21" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="84">
-      <c r="B84" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>177</v>
+      <c r="B84" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="85">
-      <c r="B85" s="4" t="s">
-        <v>178</v>
+      <c r="B85" s="3" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="86">
-      <c r="B86" s="4" t="s">
-        <v>179</v>
+      <c r="B86" s="3" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="87">
-      <c r="B87" s="4" t="s">
-        <v>180</v>
+      <c r="B87" s="3" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="88">
-      <c r="B88" s="4" t="s">
-        <v>181</v>
+      <c r="B88" s="3" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="89">
-      <c r="B89" s="4" t="s">
-        <v>182</v>
+      <c r="B89" s="3" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="90">
-      <c r="B90" s="4" t="s">
-        <v>183</v>
+      <c r="B90" s="3" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="91">
-      <c r="B91" s="4" t="s">
-        <v>184</v>
+      <c r="B91" s="3" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="B94" s="23" t="s">
-        <v>186</v>
+      <c r="A94" s="17" t="s">
+        <v>208</v>
+      </c>
+      <c r="B94" s="26" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="95">
-      <c r="B95" s="4" t="s">
-        <v>187</v>
+      <c r="B95" s="3" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="96">
-      <c r="B96" s="4" t="s">
-        <v>188</v>
+      <c r="B96" s="3" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="97">
-      <c r="B97" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="C97" s="4" t="s">
-        <v>190</v>
+      <c r="B97" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="98">
-      <c r="B98" s="4" t="s">
-        <v>191</v>
+      <c r="B98" s="3" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="99">
-      <c r="B99" s="4" t="s">
-        <v>192</v>
+      <c r="B99" s="3" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="100">
-      <c r="B100" s="4"/>
+      <c r="B100" s="3"/>
     </row>
     <row r="101">
-      <c r="B101" s="22" t="s">
-        <v>193</v>
+      <c r="B101" s="25" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="102">
-      <c r="B102" s="4" t="s">
-        <v>194</v>
+      <c r="B102" s="3" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="103">
-      <c r="B103" s="4" t="s">
-        <v>192</v>
+      <c r="B103" s="3" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="104">
-      <c r="B104" s="4" t="s">
-        <v>189</v>
+      <c r="B104" s="3" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="105">
-      <c r="B105" s="4" t="s">
-        <v>195</v>
+      <c r="B105" s="3" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="106">
-      <c r="B106" s="4" t="s">
-        <v>196</v>
+      <c r="B106" s="3" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="107">
-      <c r="B107" s="4" t="s">
-        <v>197</v>
+      <c r="B107" s="3" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="108">
-      <c r="B108" s="4" t="s">
-        <v>198</v>
+      <c r="B108" s="3" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="109">
-      <c r="B109" s="4" t="s">
-        <v>199</v>
+      <c r="B109" s="3" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="110">
-      <c r="B110" s="4" t="s">
-        <v>200</v>
+      <c r="B110" s="3" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="111">
-      <c r="B111" s="4" t="s">
-        <v>201</v>
+      <c r="B111" s="3" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="112">
-      <c r="B112" s="4" t="s">
-        <v>202</v>
+      <c r="B112" s="3" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="113">
-      <c r="B113" s="4" t="s">
-        <v>203</v>
+      <c r="B113" s="3" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" s="13" t="s">
-        <v>204</v>
-      </c>
-      <c r="B115" s="23" t="s">
-        <v>205</v>
+      <c r="A115" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="B115" s="26" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="116">
-      <c r="B116" s="4" t="s">
-        <v>206</v>
+      <c r="B116" s="3" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="117">
-      <c r="B117" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="C117" s="4" t="s">
-        <v>208</v>
+      <c r="B117" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="118">
-      <c r="B118" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="C118" s="4" t="s">
-        <v>210</v>
+      <c r="B118" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="119">
-      <c r="B119" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="C119" s="4" t="s">
-        <v>212</v>
+      <c r="B119" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="120">
-      <c r="B120" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="C120" s="4" t="s">
-        <v>214</v>
+      <c r="B120" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="121">
-      <c r="B121" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="C121" s="4" t="s">
-        <v>216</v>
+      <c r="B121" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="123">
-      <c r="B123" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="C123" s="4" t="s">
-        <v>218</v>
+      <c r="B123" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="124">
-      <c r="B124" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="C124" s="4" t="s">
-        <v>220</v>
+      <c r="B124" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="125">
-      <c r="B125" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="C125" s="4" t="s">
-        <v>222</v>
+      <c r="B125" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="126">
-      <c r="B126" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="C126" s="4" t="s">
-        <v>224</v>
+      <c r="B126" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="127">
-      <c r="C127" s="24"/>
+      <c r="C127" s="27"/>
     </row>
     <row r="129">
-      <c r="A129" s="15" t="s">
-        <v>225</v>
-      </c>
-      <c r="B129" s="14" t="s">
-        <v>226</v>
+      <c r="A129" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="B129" s="18" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="130">
-      <c r="B130" s="4" t="s">
-        <v>227</v>
-      </c>
-      <c r="C130" s="4" t="s">
-        <v>228</v>
+      <c r="B130" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="131">
-      <c r="B131" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="C131" s="4" t="s">
-        <v>230</v>
+      <c r="B131" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="132">
-      <c r="B132" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="C132" s="4" t="s">
-        <v>232</v>
+      <c r="B132" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="133">
-      <c r="B133" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="C133" s="4" t="s">
-        <v>234</v>
+      <c r="B133" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="134">
-      <c r="B134" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="C134" s="4" t="s">
-        <v>236</v>
+      <c r="B134" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="135">
-      <c r="B135" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="C135" s="4" t="s">
-        <v>238</v>
+      <c r="B135" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="136">
-      <c r="B136" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="C136" s="4" t="s">
-        <v>240</v>
+      <c r="B136" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="137">
-      <c r="B137" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="C137" s="4" t="s">
-        <v>242</v>
+      <c r="B137" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="138">
-      <c r="B138" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="C138" s="4" t="s">
-        <v>244</v>
+      <c r="B138" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="139">
-      <c r="B139" s="4" t="s">
-        <v>245</v>
+      <c r="B139" s="3" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="140">
-      <c r="B140" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="C140" s="4" t="s">
-        <v>247</v>
+      <c r="B140" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="141">
-      <c r="B141" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="C141" s="4" t="s">
-        <v>249</v>
+      <c r="B141" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="142">
-      <c r="B142" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="C142" s="4" t="s">
-        <v>251</v>
+      <c r="B142" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="143">
-      <c r="B143" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="C143" s="4" t="s">
-        <v>253</v>
+      <c r="B143" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>276</v>
       </c>
     </row>
     <row r="144">
-      <c r="B144" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="C144" s="4" t="s">
-        <v>255</v>
+      <c r="B144" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="145">
-      <c r="C145" s="24" t="s">
-        <v>8</v>
+      <c r="C145" s="27" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="150">
-      <c r="A150" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="B150" s="25" t="s">
-        <v>257</v>
+      <c r="A150" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="B150" s="28" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="151">
-      <c r="B151" s="26" t="s">
-        <v>258</v>
+      <c r="B151" s="29" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="152">
-      <c r="B152" s="26" t="s">
-        <v>259</v>
+      <c r="B152" s="29" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="153">
-      <c r="B153" s="26" t="s">
-        <v>260</v>
+      <c r="B153" s="29" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="154">
-      <c r="B154" s="26" t="s">
-        <v>261</v>
+      <c r="B154" s="29" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="155">
-      <c r="B155" s="26" t="s">
-        <v>262</v>
+      <c r="B155" s="29" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="156">
-      <c r="B156" s="26" t="s">
-        <v>263</v>
+      <c r="B156" s="29" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="157">
-      <c r="B157" s="26" t="s">
-        <v>264</v>
+      <c r="B157" s="29" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="158">
-      <c r="B158" s="26" t="s">
-        <v>265</v>
+      <c r="B158" s="29" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="159">
-      <c r="B159" s="26" t="s">
-        <v>266</v>
+      <c r="B159" s="29" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="160">
-      <c r="B160" s="26" t="s">
-        <v>267</v>
+      <c r="B160" s="29" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="161">
-      <c r="B161" s="26" t="s">
-        <v>268</v>
+      <c r="B161" s="29" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="162">
-      <c r="B162" s="26" t="s">
-        <v>269</v>
+      <c r="B162" s="29" t="s">
+        <v>292</v>
       </c>
     </row>
     <row r="163">
-      <c r="B163" s="26" t="s">
-        <v>270</v>
+      <c r="B163" s="29" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="166">
-      <c r="A166" s="13" t="s">
-        <v>271</v>
-      </c>
-      <c r="B166" s="25" t="s">
-        <v>272</v>
+      <c r="A166" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="B166" s="28" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="167">
-      <c r="B167" s="27" t="s">
-        <v>273</v>
+      <c r="B167" s="30" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="168">
-      <c r="B168" s="28" t="s">
-        <v>274</v>
+      <c r="B168" s="31" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="169">
-      <c r="B169" s="29" t="s">
-        <v>275</v>
+      <c r="B169" s="32" t="s">
+        <v>298</v>
       </c>
     </row>
     <row r="170">
-      <c r="B170" s="30" t="s">
-        <v>276</v>
+      <c r="B170" s="33" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="171">
-      <c r="B171" s="31" t="s">
-        <v>277</v>
+      <c r="B171" s="34" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="172">
-      <c r="B172" s="32" t="s">
-        <v>278</v>
+      <c r="B172" s="35" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="173">
-      <c r="B173" s="26" t="s">
-        <v>279</v>
+      <c r="B173" s="29" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="174">
-      <c r="B174" s="26" t="s">
-        <v>280</v>
+      <c r="B174" s="29" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="175">
-      <c r="B175" s="26" t="s">
-        <v>281</v>
+      <c r="B175" s="29" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="176">
-      <c r="B176" s="26" t="s">
-        <v>282</v>
+      <c r="B176" s="29" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="177">
-      <c r="B177" s="26" t="s">
-        <v>283</v>
+      <c r="B177" s="29" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="178">
-      <c r="B178" s="26" t="s">
-        <v>284</v>
+      <c r="B178" s="29" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="179">
-      <c r="B179" s="26" t="s">
-        <v>285</v>
+      <c r="B179" s="29" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="180">
-      <c r="B180" s="26" t="s">
-        <v>286</v>
+      <c r="B180" s="29" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="181">
-      <c r="B181" s="26" t="s">
-        <v>287</v>
+      <c r="B181" s="29" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="182">
-      <c r="B182" s="33" t="s">
-        <v>288</v>
+      <c r="B182" s="36" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="183">
-      <c r="B183" s="26" t="s">
-        <v>289</v>
+      <c r="B183" s="29" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="184">
-      <c r="B184" s="26" t="s">
-        <v>290</v>
+      <c r="B184" s="29" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="185">
-      <c r="B185" s="26" t="s">
-        <v>291</v>
+      <c r="B185" s="29" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="186">
-      <c r="B186" s="26" t="s">
-        <v>292</v>
+      <c r="B186" s="29" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="187">
-      <c r="B187" s="26" t="s">
-        <v>293</v>
+      <c r="B187" s="29" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="188">
-      <c r="B188" s="26" t="s">
-        <v>294</v>
+      <c r="B188" s="29" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="189">
-      <c r="B189" s="26" t="s">
-        <v>295</v>
+      <c r="B189" s="29" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="190">
-      <c r="B190" s="26" t="s">
-        <v>296</v>
+      <c r="B190" s="29" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="191">
-      <c r="B191" s="26" t="s">
-        <v>297</v>
+      <c r="B191" s="29" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="192">
-      <c r="B192" s="26" t="s">
-        <v>298</v>
+      <c r="B192" s="29" t="s">
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -3336,7 +3866,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <tabColor rgb="FFFF9900"/>
@@ -3351,8 +3881,64 @@
   </cols>
   <sheetData>
     <row r="2">
-      <c r="B2" s="19" t="s">
-        <v>299</v>
+      <c r="B2" s="22" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="3" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="3" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="3" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="3" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="3" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="38">
+        <v>1.5256944444444445</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="39" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" s="3" t="s">
+        <v>332</v>
       </c>
     </row>
   </sheetData>
@@ -3360,7 +3946,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <tabColor rgb="FFFF9900"/>
@@ -3375,7 +3961,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <tabColor rgb="FFFF9900"/>
@@ -3392,160 +3978,160 @@
   </cols>
   <sheetData>
     <row r="3">
-      <c r="A3" s="34">
+      <c r="A3" s="37">
         <v>0.08333333333333333</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>301</v>
+      <c r="B3" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="5">
-      <c r="B5" s="35" t="s">
-        <v>272</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>302</v>
+      <c r="B5" s="40" t="s">
+        <v>295</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="6">
-      <c r="B6" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>303</v>
+      <c r="B6" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="4" t="s">
-        <v>304</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>305</v>
+      <c r="B7" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="4" t="s">
-        <v>306</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>307</v>
+      <c r="B8" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>309</v>
+      <c r="B9" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>311</v>
+      <c r="B10" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>313</v>
+      <c r="B11" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>315</v>
+      <c r="B12" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="34">
+      <c r="A15" s="37">
         <v>0.4583333333333333</v>
       </c>
-      <c r="B15" s="35" t="s">
-        <v>257</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>316</v>
+      <c r="B15" s="40" t="s">
+        <v>280</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>318</v>
+      <c r="B16" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>320</v>
+      <c r="B17" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>353</v>
       </c>
     </row>
     <row r="19">
-      <c r="B19" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>322</v>
+      <c r="B19" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="20">
-      <c r="B20" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>324</v>
+      <c r="B20" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="C20" s="22" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="21">
-      <c r="B21" s="18" t="s">
-        <v>325</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>326</v>
+      <c r="B21" s="21" t="s">
+        <v>358</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="22">
-      <c r="B22" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>266</v>
+      <c r="B22" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="23">
-      <c r="B23" s="36" t="s">
-        <v>328</v>
+      <c r="B23" s="41" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="24">
-      <c r="B24" s="4" t="s">
-        <v>329</v>
+      <c r="B24" s="3" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="26">
-      <c r="B26" s="37" t="s">
-        <v>330</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>331</v>
+      <c r="B26" s="42" t="s">
+        <v>363</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="27">
-      <c r="C27" s="24" t="s">
-        <v>8</v>
+      <c r="C27" s="27" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -3557,7 +4143,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -3572,7 +4158,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <tabColor rgb="FF99CC00"/>
@@ -3588,236 +4174,416 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="34">
+      <c r="A1" s="37">
         <v>0.7590277777777777</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="C3" s="4" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="C5" s="35" t="s">
-        <v>333</v>
+      <c r="B1" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="43">
+        <v>0.5451388888888888</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="6">
-      <c r="C6" s="19" t="s">
-        <v>334</v>
+      <c r="B6" s="43">
+        <v>0.5541666666666667</v>
+      </c>
+      <c r="C6" s="40" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="7">
-      <c r="C7" s="19" t="s">
-        <v>335</v>
+      <c r="C7" s="22" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="8">
-      <c r="C8" s="19" t="s">
-        <v>336</v>
+      <c r="C8" s="22" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="9">
-      <c r="C9" s="19" t="s">
-        <v>337</v>
+      <c r="C9" s="22" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="10">
-      <c r="C10" s="19" t="s">
-        <v>338</v>
+      <c r="C10" s="22" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="11">
-      <c r="C11" s="38"/>
+      <c r="C11" s="22" t="s">
+        <v>371</v>
+      </c>
     </row>
     <row r="12">
-      <c r="C12" s="35" t="s">
-        <v>339</v>
-      </c>
+      <c r="C12" s="44"/>
     </row>
     <row r="13">
-      <c r="C13" s="19" t="s">
-        <v>340</v>
+      <c r="B13" s="37">
+        <v>0.6083333333333333</v>
+      </c>
+      <c r="C13" s="40" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="14">
-      <c r="C14" s="19" t="s">
-        <v>341</v>
+      <c r="C14" s="22" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="15">
-      <c r="C15" s="19" t="s">
-        <v>342</v>
+      <c r="C15" s="22" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="16">
-      <c r="C16" s="19" t="s">
-        <v>343</v>
+      <c r="C16" s="22" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="34"/>
-      <c r="C17" s="19" t="s">
-        <v>344</v>
+      <c r="C17" s="22" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="18">
-      <c r="C18" s="38"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="22" t="s">
+        <v>377</v>
+      </c>
     </row>
     <row r="19">
-      <c r="B19" s="34">
+      <c r="C19" s="44"/>
+    </row>
+    <row r="20">
+      <c r="B20" s="37">
         <v>0.6895833333333333</v>
       </c>
-      <c r="C19" s="35" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="C20" s="19" t="s">
-        <v>346</v>
+      <c r="C20" s="40" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="21">
-      <c r="C21" s="38"/>
+      <c r="C21" s="22" t="s">
+        <v>379</v>
+      </c>
     </row>
     <row r="22">
-      <c r="B22" s="34">
+      <c r="C22" s="44"/>
+    </row>
+    <row r="23">
+      <c r="B23" s="37">
         <v>0.7055555555555556</v>
       </c>
-      <c r="C22" s="35" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="C23" s="19" t="s">
-        <v>348</v>
+      <c r="C23" s="40" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="24">
-      <c r="C24" s="19" t="s">
-        <v>349</v>
+      <c r="C24" s="22" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="25">
-      <c r="C25" s="38"/>
+      <c r="C25" s="22" t="s">
+        <v>382</v>
+      </c>
     </row>
     <row r="26">
-      <c r="B26" s="34">
+      <c r="C26" s="44"/>
+    </row>
+    <row r="27">
+      <c r="B27" s="37">
         <v>0.7236111111111111</v>
       </c>
-      <c r="C26" s="35" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="C27" s="19" t="s">
-        <v>351</v>
+      <c r="C27" s="40" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="28">
-      <c r="C28" s="19" t="s">
-        <v>352</v>
+      <c r="C28" s="22" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="29">
-      <c r="B29" s="34">
+      <c r="C29" s="22" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="B30" s="37">
         <v>0.7590277777777777</v>
       </c>
-      <c r="C29" s="38"/>
-    </row>
-    <row r="30">
-      <c r="C30" s="38"/>
+      <c r="C30" s="22" t="s">
+        <v>386</v>
+      </c>
     </row>
     <row r="31">
-      <c r="C31" s="38"/>
+      <c r="C31" s="22" t="s">
+        <v>387</v>
+      </c>
     </row>
     <row r="32">
-      <c r="C32" s="38"/>
+      <c r="C32" s="22" t="s">
+        <v>388</v>
+      </c>
     </row>
     <row r="33">
-      <c r="C33" s="38"/>
-    </row>
-  </sheetData>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <tabColor rgb="FF38761D"/>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <cols>
-    <col customWidth="1" min="2" max="2" width="82.13"/>
-  </cols>
-  <sheetData>
-    <row r="2" ht="678.75" customHeight="1">
-      <c r="B2" s="39" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="B4" s="4" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="B5" s="4" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" s="4" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" s="4" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" s="4" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="B9" s="4" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="B10" s="4" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" s="4" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="B12" s="4" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13" s="4" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="B14" s="4" t="s">
-        <v>364</v>
-      </c>
+      <c r="B33" s="43">
+        <v>0.8048611111111111</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="B34" s="43">
+        <v>0.8298611111111112</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" s="45"/>
+      <c r="C35" s="22" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" s="43">
+        <v>0.8652777777777778</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" s="45"/>
+      <c r="C37" s="22" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" s="45"/>
+      <c r="C38" s="22" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" s="43">
+        <v>0.95625</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" s="46"/>
+      <c r="C40" s="22" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" s="46"/>
+      <c r="C41" s="22" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="C42" s="22" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="B43" s="47" t="s">
+        <v>399</v>
+      </c>
+      <c r="C43" s="22" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" s="48"/>
+      <c r="C44" s="22" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="B45" s="48"/>
+      <c r="C45" s="3" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" s="48"/>
+      <c r="C46" s="3" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" s="48"/>
+      <c r="C47" s="22" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" s="47" t="s">
+        <v>405</v>
+      </c>
+      <c r="C48" s="22" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="B49" s="49"/>
+      <c r="C49" s="22" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" s="49"/>
+      <c r="C50" s="22" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="B51" s="49"/>
+      <c r="C51" s="22" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="B52" s="49"/>
+      <c r="C52" s="22"/>
+    </row>
+    <row r="53">
+      <c r="B53" s="49"/>
+      <c r="C53" s="22" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" s="49"/>
+      <c r="C54" s="22" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="B55" s="49"/>
+      <c r="C55" s="22" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="B56" s="47" t="s">
+        <v>413</v>
+      </c>
+      <c r="C56" s="22" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="B57" s="49"/>
+      <c r="C57" s="22" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="B58" s="49"/>
+      <c r="C58" s="22" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="B59" s="49"/>
+      <c r="C59" s="22" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="B60" s="49"/>
+      <c r="C60" s="22" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="B61" s="49"/>
+      <c r="C61" s="22" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="B62" s="47" t="s">
+        <v>420</v>
+      </c>
+      <c r="C62" s="22" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="B63" s="48"/>
+      <c r="C63" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="C64" s="22" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="C65" s="22" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="B66" s="50" t="s">
+        <v>425</v>
+      </c>
+      <c r="C66" s="51" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="B67" s="52"/>
+      <c r="C67" s="22" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="B68" s="47" t="s">
+        <v>428</v>
+      </c>
+      <c r="C68" s="22" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="C69" s="22" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="C70" s="22" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="B71" s="47" t="s">
+        <v>432</v>
+      </c>
+      <c r="C71" s="44"/>
+    </row>
+    <row r="72">
+      <c r="C72" s="44"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -3835,12 +4601,67 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="71.75"/>
+    <col customWidth="1" min="2" max="2" width="82.13"/>
   </cols>
   <sheetData>
-    <row r="2">
-      <c r="B2" s="19" t="s">
-        <v>365</v>
+    <row r="2" ht="678.75" customHeight="1">
+      <c r="B2" s="45" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="3" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" s="3" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" s="3" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" s="3" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="3" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" s="3" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="3" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" s="3" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" s="3" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" s="3" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" s="3" t="s">
+        <v>444</v>
       </c>
     </row>
   </sheetData>
